--- a/Resource/excel/table/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23620" tabRatio="506"/>
+    <workbookView windowHeight="24260" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
   <si>
     <t>xml=class</t>
   </si>
@@ -570,7 +570,13 @@
     <t>获得buff个数（条件计数使用）</t>
   </si>
   <si>
-    <t>buffcount</t>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>KeyValue</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>今日最好战绩</t>
@@ -607,8 +613,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -644,21 +650,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,15 +664,61 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -695,33 +733,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,38 +748,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,8 +769,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,8 +799,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,7 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,7 +882,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,13 +930,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,19 +966,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,79 +1008,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,31 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,41 +1071,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,17 +1092,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,153 +1135,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1787,11 +1775,11 @@
   <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="$A23:$XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3458,7 +3446,19 @@
         <v>126</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>5</v>
+        <v>103</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="P23" s="4">
         <v>0</v>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="4">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="5">
         <v>1</v>
@@ -3591,19 +3591,19 @@
     </row>
     <row r="25" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A25" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>92</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P25" s="5">
         <v>0</v>
@@ -3665,19 +3665,19 @@
     </row>
     <row r="26" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A26" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>92</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P26" s="5">
         <v>0</v>
@@ -3739,19 +3739,19 @@
     </row>
     <row r="27" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A27" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>92</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P27" s="5">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="28" s="6" customFormat="1" spans="1:34">
       <c r="A28" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>109</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="29" s="6" customFormat="1" spans="1:34">
       <c r="A29" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>115</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="30" s="6" customFormat="1" spans="1:34">
       <c r="A30" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>121</v>

--- a/Resource/excel/table/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="24260" tabRatio="506"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="24255" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -24,13 +29,14 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -44,13 +50,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="1">
+    <comment ref="N6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>lori:</t>
@@ -59,6 +66,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -67,13 +75,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="2">
+    <comment ref="T7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -82,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,13 +103,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="W7" authorId="0">
+    <comment ref="W7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刘小兵(橘右京):</t>
@@ -108,6 +119,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -115,13 +127,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="2">
+    <comment ref="M16" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -130,6 +143,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -137,13 +151,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O16" authorId="2">
+    <comment ref="O16" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -152,6 +167,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -164,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="149">
   <si>
     <t>xml=class</t>
   </si>
@@ -420,6 +436,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -429,6 +446,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>asic</t>
@@ -438,6 +456,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Player</t>
@@ -498,125 +517,167 @@
     <t>战绩列表</t>
   </si>
   <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>战绩</t>
+  </si>
+  <si>
+    <t>英雄列表</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>出战的英雄</t>
+  </si>
+  <si>
+    <t>heroid</t>
+  </si>
+  <si>
+    <t>特效列表</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>选择的特效</t>
+  </si>
+  <si>
+    <t>effectid</t>
+  </si>
+  <si>
+    <t>脚印列表</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>脚印</t>
+  </si>
+  <si>
+    <t>选择的脚印</t>
+  </si>
+  <si>
+    <t>footid</t>
+  </si>
+  <si>
+    <t>KeyValue</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>今日最好战绩</t>
+  </si>
+  <si>
+    <t>昨日最好战绩</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>历史最好战绩</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>英雄id</t>
+  </si>
+  <si>
+    <t>特效id</t>
+  </si>
+  <si>
+    <t>脚印id</t>
+  </si>
+  <si>
+    <t>获得buff个数（条件计数使用）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>某关卡进入密道次数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成某关卡次数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishlevellist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishlevelnodmglist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得某道具N次</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过障碍次数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤完成某关卡次数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>extrapathlist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>getitemlist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumppasslist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>score</t>
-  </si>
-  <si>
-    <t>record</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>战绩</t>
-  </si>
-  <si>
-    <t>英雄列表</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>Hero</t>
-  </si>
-  <si>
-    <t>英雄</t>
-  </si>
-  <si>
-    <t>出战的英雄</t>
-  </si>
-  <si>
-    <t>heroid</t>
-  </si>
-  <si>
-    <t>特效列表</t>
-  </si>
-  <si>
-    <t>effect</t>
-  </si>
-  <si>
-    <t>Effect</t>
-  </si>
-  <si>
-    <t>特效</t>
-  </si>
-  <si>
-    <t>选择的特效</t>
-  </si>
-  <si>
-    <t>effectid</t>
-  </si>
-  <si>
-    <t>脚印列表</t>
-  </si>
-  <si>
-    <t>foot</t>
-  </si>
-  <si>
-    <t>Foot</t>
-  </si>
-  <si>
-    <t>脚印</t>
-  </si>
-  <si>
-    <t>选择的脚印</t>
-  </si>
-  <si>
-    <t>footid</t>
-  </si>
-  <si>
-    <t>获得buff个数（条件计数使用）</t>
-  </si>
-  <si>
-    <t>buffer</t>
-  </si>
-  <si>
-    <t>KeyValue</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>今日最好战绩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>today</t>
-  </si>
-  <si>
-    <t>昨日最好战绩</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>历史最好战绩</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>英雄id</t>
-  </si>
-  <si>
-    <t>特效id</t>
-  </si>
-  <si>
-    <t>脚印id</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -627,12 +688,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -640,174 +703,44 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,13 +755,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,13 +773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,174 +797,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1067,251 +838,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,7 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,61 +888,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="着色 6" xfId="1" builtinId="49"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1432,12 +917,15 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1766,23 +1254,22 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AL30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="$A23:$XFD23"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="48.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="36.25" style="7" customWidth="1"/>
@@ -1815,7 +1302,7 @@
     <col min="39" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:38">
+    <row r="2" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -1942,7 +1429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:38">
+    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2058,17 +1545,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:1">
+    <row r="4" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:1">
+    <row r="5" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:38">
+    <row r="6" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -2184,7 +1671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:38">
+    <row r="7" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>44</v>
       </c>
@@ -2300,7 +1787,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="16.5" customHeight="1" spans="1:38">
+    <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
@@ -2386,7 +1873,7 @@
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
     </row>
-    <row r="9" s="4" customFormat="1" ht="16.5" customHeight="1" spans="1:34">
+    <row r="9" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>85</v>
       </c>
@@ -2460,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="10" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -2531,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="11" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
@@ -2602,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="12" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>93</v>
       </c>
@@ -2673,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="13" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>95</v>
       </c>
@@ -2744,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="14" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>97</v>
       </c>
@@ -2815,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="15" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>99</v>
       </c>
@@ -2886,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="16.5" customHeight="1" spans="1:34">
+    <row r="16" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>101</v>
       </c>
@@ -2894,27 +2381,26 @@
         <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="M16" s="4">
         <v>100</v>
       </c>
-      <c r="O16" s="4"/>
       <c r="P16" s="4">
         <v>0</v>
       </c>
@@ -2973,98 +2459,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:34">
+    <row r="17" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="4" t="s">
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>1</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>1</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4">
-        <v>1</v>
-      </c>
-      <c r="V17" s="4">
-        <v>1</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:34">
-      <c r="A18" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>5</v>
@@ -3127,98 +2613,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:34">
+    <row r="19" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1</v>
+      </c>
+      <c r="V19" s="4">
+        <v>1</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>1</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>1</v>
-      </c>
-      <c r="V19" s="4">
-        <v>1</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="1:34">
-      <c r="A20" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>5</v>
@@ -3281,98 +2767,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:34">
+    <row r="21" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" s="4" t="s">
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
+        <v>1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>1</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>1</v>
-      </c>
-      <c r="V21" s="4">
-        <v>1</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" s="4" customFormat="1" spans="1:34">
-      <c r="A22" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
@@ -3435,607 +2921,1023 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:34">
+    <row r="23" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+      <c r="S26" s="4">
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>0</v>
+      </c>
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>0</v>
+      </c>
+      <c r="R29" s="5">
+        <v>0</v>
+      </c>
+      <c r="S29" s="5">
+        <v>0</v>
+      </c>
+      <c r="T29" s="5">
+        <v>0</v>
+      </c>
+      <c r="U29" s="5">
+        <v>0</v>
+      </c>
+      <c r="V29" s="5">
+        <v>1</v>
+      </c>
+      <c r="W29" s="5">
+        <v>0</v>
+      </c>
+      <c r="X29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="B30" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>1</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0</v>
+      </c>
+      <c r="T30" s="5">
+        <v>0</v>
+      </c>
+      <c r="U30" s="5">
+        <v>1</v>
+      </c>
+      <c r="V30" s="5">
+        <v>1</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="C31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="P23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0</v>
-      </c>
-      <c r="T23" s="4">
-        <v>0</v>
-      </c>
-      <c r="U23" s="4">
-        <v>0</v>
-      </c>
-      <c r="V23" s="4">
-        <v>0</v>
-      </c>
-      <c r="W23" s="4">
-        <v>0</v>
-      </c>
-      <c r="X23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="4">
-        <v>1</v>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>1</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0</v>
+      </c>
+      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="5">
+        <v>1</v>
+      </c>
+      <c r="V31" s="5">
+        <v>1</v>
+      </c>
+      <c r="W31" s="5">
+        <v>0</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
-      <c r="A24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="32" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0</v>
+      </c>
+      <c r="T32" s="5">
+        <v>0</v>
+      </c>
+      <c r="U32" s="5">
+        <v>1</v>
+      </c>
+      <c r="V32" s="5">
+        <v>1</v>
+      </c>
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="E33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>0</v>
-      </c>
-      <c r="R24" s="5">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5">
-        <v>0</v>
-      </c>
-      <c r="T24" s="5">
-        <v>0</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0</v>
-      </c>
-      <c r="V24" s="5">
-        <v>1</v>
-      </c>
-      <c r="W24" s="5">
-        <v>0</v>
-      </c>
-      <c r="X24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="5">
+      <c r="J33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>1</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0</v>
+      </c>
+      <c r="T33" s="6">
+        <v>0</v>
+      </c>
+      <c r="U33" s="6">
+        <v>1</v>
+      </c>
+      <c r="V33" s="6">
+        <v>1</v>
+      </c>
+      <c r="W33" s="6">
+        <v>0</v>
+      </c>
+      <c r="X33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
-      <c r="A25" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="5" t="s">
+    <row r="34" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="P25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>1</v>
-      </c>
-      <c r="R25" s="5">
-        <v>0</v>
-      </c>
-      <c r="S25" s="5">
-        <v>0</v>
-      </c>
-      <c r="T25" s="5">
-        <v>0</v>
-      </c>
-      <c r="U25" s="5">
-        <v>1</v>
-      </c>
-      <c r="V25" s="5">
-        <v>1</v>
-      </c>
-      <c r="W25" s="5">
-        <v>0</v>
-      </c>
-      <c r="X25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="5">
-        <v>1</v>
+      <c r="E34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>1</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0</v>
+      </c>
+      <c r="T34" s="6">
+        <v>0</v>
+      </c>
+      <c r="U34" s="6">
+        <v>1</v>
+      </c>
+      <c r="V34" s="6">
+        <v>1</v>
+      </c>
+      <c r="W34" s="6">
+        <v>0</v>
+      </c>
+      <c r="X34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="6">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
-      <c r="A26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="5" t="s">
+    <row r="35" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="P26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>1</v>
-      </c>
-      <c r="R26" s="5">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5">
-        <v>0</v>
-      </c>
-      <c r="T26" s="5">
-        <v>0</v>
-      </c>
-      <c r="U26" s="5">
-        <v>1</v>
-      </c>
-      <c r="V26" s="5">
-        <v>1</v>
-      </c>
-      <c r="W26" s="5">
-        <v>0</v>
-      </c>
-      <c r="X26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
-      <c r="A27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="E35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="P27" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>0</v>
-      </c>
-      <c r="R27" s="5">
-        <v>0</v>
-      </c>
-      <c r="S27" s="5">
-        <v>0</v>
-      </c>
-      <c r="T27" s="5">
-        <v>0</v>
-      </c>
-      <c r="U27" s="5">
-        <v>1</v>
-      </c>
-      <c r="V27" s="5">
-        <v>1</v>
-      </c>
-      <c r="W27" s="5">
-        <v>0</v>
-      </c>
-      <c r="X27" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" s="6" customFormat="1" spans="1:34">
-      <c r="A28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>1</v>
-      </c>
-      <c r="R28" s="6">
-        <v>0</v>
-      </c>
-      <c r="S28" s="6">
-        <v>0</v>
-      </c>
-      <c r="T28" s="6">
-        <v>0</v>
-      </c>
-      <c r="U28" s="6">
-        <v>1</v>
-      </c>
-      <c r="V28" s="6">
-        <v>1</v>
-      </c>
-      <c r="W28" s="6">
-        <v>0</v>
-      </c>
-      <c r="X28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" s="6" customFormat="1" spans="1:34">
-      <c r="A29" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>1</v>
-      </c>
-      <c r="R29" s="6">
-        <v>0</v>
-      </c>
-      <c r="S29" s="6">
-        <v>0</v>
-      </c>
-      <c r="T29" s="6">
-        <v>0</v>
-      </c>
-      <c r="U29" s="6">
-        <v>1</v>
-      </c>
-      <c r="V29" s="6">
-        <v>1</v>
-      </c>
-      <c r="W29" s="6">
-        <v>0</v>
-      </c>
-      <c r="X29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" s="6" customFormat="1" spans="1:34">
-      <c r="A30" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>1</v>
-      </c>
-      <c r="R30" s="6">
-        <v>0</v>
-      </c>
-      <c r="S30" s="6">
-        <v>0</v>
-      </c>
-      <c r="T30" s="6">
-        <v>0</v>
-      </c>
-      <c r="U30" s="6">
-        <v>1</v>
-      </c>
-      <c r="V30" s="6">
-        <v>1</v>
-      </c>
-      <c r="W30" s="6">
-        <v>0</v>
-      </c>
-      <c r="X30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="6">
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>1</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0</v>
+      </c>
+      <c r="T35" s="6">
+        <v>0</v>
+      </c>
+      <c r="U35" s="6">
+        <v>1</v>
+      </c>
+      <c r="V35" s="6">
+        <v>1</v>
+      </c>
+      <c r="W35" s="6">
+        <v>0</v>
+      </c>
+      <c r="X35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Resource/excel/table/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="24255" tabRatio="506"/>
+    <workbookView windowHeight="24260" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -29,14 +24,13 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -50,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="1" shapeId="0">
+    <comment ref="N6" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>lori:</t>
@@ -66,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -75,14 +67,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="2" shapeId="0">
+    <comment ref="T7" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -91,7 +82,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -103,14 +93,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="W7" authorId="0" shapeId="0">
+    <comment ref="W7" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刘小兵(橘右京):</t>
@@ -119,7 +108,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -127,14 +115,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="2" shapeId="0">
+    <comment ref="M16" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -143,7 +130,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -151,14 +137,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O16" authorId="2" shapeId="0">
+    <comment ref="O16" authorId="2">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -167,7 +152,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -180,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>xml=class</t>
   </si>
@@ -436,7 +420,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -446,7 +429,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>asic</t>
@@ -456,7 +438,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Player</t>
@@ -517,6 +498,9 @@
     <t>战绩列表</t>
   </si>
   <si>
+    <t>score</t>
+  </si>
+  <si>
     <t>record</t>
   </si>
   <si>
@@ -583,15 +567,60 @@
     <t>footid</t>
   </si>
   <si>
+    <t>获得buff个数（条件计数使用）</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
     <t>KeyValue</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
+    <t>完成某关卡次数</t>
+  </si>
+  <si>
+    <t>finishlevellist</t>
+  </si>
+  <si>
+    <t>某关卡进入密道次数</t>
+  </si>
+  <si>
+    <t>extrapathlist</t>
+  </si>
+  <si>
+    <t>获得某道具N次</t>
+  </si>
+  <si>
+    <t>getitemlist</t>
+  </si>
+  <si>
+    <t>跳过障碍次数</t>
+  </si>
+  <si>
+    <t>jumppasslist</t>
+  </si>
+  <si>
+    <t>无伤完成某关卡次数</t>
+  </si>
+  <si>
+    <t>finishlevelnodmglist</t>
+  </si>
+  <si>
+    <t>每天在线的时间（条件计数使用）</t>
+  </si>
+  <si>
+    <t>onlinetime</t>
+  </si>
+  <si>
     <t>今日最好战绩</t>
   </si>
   <si>
+    <t>today</t>
+  </si>
+  <si>
     <t>昨日最好战绩</t>
   </si>
   <si>
@@ -611,73 +640,19 @@
   </si>
   <si>
     <t>脚印id</t>
-  </si>
-  <si>
-    <t>获得buff个数（条件计数使用）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>某关卡进入密道次数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成某关卡次数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>finishlevellist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>finishlevelnodmglist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得某道具N次</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过障碍次数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>无伤完成某关卡次数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>extrapathlist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>getitemlist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>jumppasslist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Score</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>today</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -688,14 +663,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -703,44 +676,174 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,13 +858,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
+        <fgColor theme="8" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,13 +876,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,12 +900,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -838,12 +1121,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -860,7 +1382,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -888,14 +1410,61 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 6" xfId="1" builtinId="49"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -917,15 +1486,12 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF05FF6F"/>
+      <color rgb="0005FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1254,22 +1820,23 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="$A29:$XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="48.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="36.25" style="7" customWidth="1"/>
@@ -1302,7 +1869,7 @@
     <col min="39" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="1" spans="1:38">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -1429,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="2" customFormat="1" spans="1:38">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1545,17 +2112,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="3" customFormat="1" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="3" customFormat="1" spans="1:1">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="1" spans="1:38">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -1671,7 +2238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" customFormat="1" spans="1:38">
       <c r="A7" s="11" t="s">
         <v>44</v>
       </c>
@@ -1787,7 +2354,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="4" customFormat="1" ht="16.5" customHeight="1" spans="1:38">
       <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
@@ -1873,7 +2440,7 @@
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
     </row>
-    <row r="9" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="4" customFormat="1" ht="16.5" customHeight="1" spans="1:34">
       <c r="A9" s="4" t="s">
         <v>85</v>
       </c>
@@ -1947,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -2018,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
@@ -2089,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A12" s="4" t="s">
         <v>93</v>
       </c>
@@ -2160,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A13" s="4" t="s">
         <v>95</v>
       </c>
@@ -2231,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A14" s="4" t="s">
         <v>97</v>
       </c>
@@ -2302,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A15" s="4" t="s">
         <v>99</v>
       </c>
@@ -2373,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" s="4" customFormat="1" ht="16.5" customHeight="1" spans="1:34">
       <c r="A16" s="4" t="s">
         <v>101</v>
       </c>
@@ -2381,26 +2948,27 @@
         <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M16" s="4">
         <v>100</v>
       </c>
+      <c r="O16" s="4"/>
       <c r="P16" s="4">
         <v>0</v>
       </c>
@@ -2459,30 +3027,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="4" customFormat="1" spans="1:34">
       <c r="A17" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P17" s="4">
         <v>0</v>
@@ -2542,15 +3110,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="4" customFormat="1" spans="1:34">
       <c r="A18" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>5</v>
@@ -2613,30 +3181,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="4" customFormat="1" spans="1:34">
       <c r="A19" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P19" s="4">
         <v>0</v>
@@ -2696,15 +3264,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="4" customFormat="1" spans="1:34">
       <c r="A20" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>5</v>
@@ -2767,30 +3335,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="4" customFormat="1" spans="1:34">
       <c r="A21" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -2850,15 +3418,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="4" customFormat="1" spans="1:34">
       <c r="A22" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
@@ -2921,30 +3489,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" s="4" customFormat="1" spans="1:34">
       <c r="A23" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P23" s="4">
         <v>0</v>
@@ -3004,30 +3572,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" s="4" customFormat="1" spans="1:34">
       <c r="A24" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P24" s="4">
         <v>0</v>
@@ -3087,30 +3655,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" s="4" customFormat="1" spans="1:34">
       <c r="A25" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P25" s="4">
         <v>0</v>
@@ -3170,30 +3738,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" s="4" customFormat="1" spans="1:34">
       <c r="A26" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P26" s="4">
         <v>0</v>
@@ -3253,30 +3821,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" s="4" customFormat="1" spans="1:34">
       <c r="A27" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P27" s="4">
         <v>0</v>
@@ -3336,249 +3904,246 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="4" customFormat="1" spans="1:34">
       <c r="A28" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0</v>
+      </c>
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>0</v>
+      </c>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+      <c r="A29" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4">
+        <v>1</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0</v>
+      </c>
+      <c r="X29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
+      <c r="A30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="C30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0</v>
+      </c>
+      <c r="S30" s="5">
+        <v>0</v>
+      </c>
+      <c r="T30" s="5">
+        <v>0</v>
+      </c>
+      <c r="U30" s="5">
+        <v>0</v>
+      </c>
+      <c r="V30" s="5">
+        <v>1</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
+      <c r="A31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="P28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
-      <c r="R28" s="4">
-        <v>0</v>
-      </c>
-      <c r="S28" s="4">
-        <v>0</v>
-      </c>
-      <c r="T28" s="4">
-        <v>0</v>
-      </c>
-      <c r="U28" s="4">
-        <v>0</v>
-      </c>
-      <c r="V28" s="4">
-        <v>0</v>
-      </c>
-      <c r="W28" s="4">
-        <v>0</v>
-      </c>
-      <c r="X28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="4">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="5">
-        <v>0</v>
-      </c>
-      <c r="R29" s="5">
-        <v>0</v>
-      </c>
-      <c r="S29" s="5">
-        <v>0</v>
-      </c>
-      <c r="T29" s="5">
-        <v>0</v>
-      </c>
-      <c r="U29" s="5">
-        <v>0</v>
-      </c>
-      <c r="V29" s="5">
-        <v>1</v>
-      </c>
-      <c r="W29" s="5">
-        <v>0</v>
-      </c>
-      <c r="X29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>1</v>
-      </c>
-      <c r="R30" s="5">
-        <v>0</v>
-      </c>
-      <c r="S30" s="5">
-        <v>0</v>
-      </c>
-      <c r="T30" s="5">
-        <v>0</v>
-      </c>
-      <c r="U30" s="5">
-        <v>1</v>
-      </c>
-      <c r="V30" s="5">
-        <v>1</v>
-      </c>
-      <c r="W30" s="5">
-        <v>0</v>
-      </c>
-      <c r="X30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="C31" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>92</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="P31" s="5">
         <v>0</v>
@@ -3635,30 +4200,30 @@
         <v>1</v>
       </c>
       <c r="AH31" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
       <c r="A32" s="5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>92</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="P32" s="5">
         <v>0</v>
       </c>
       <c r="Q32" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="5">
         <v>0</v>
@@ -3712,95 +4277,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="6" t="s">
+    <row r="33" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
+      <c r="A33" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="P33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>1</v>
-      </c>
-      <c r="R33" s="6">
-        <v>0</v>
-      </c>
-      <c r="S33" s="6">
-        <v>0</v>
-      </c>
-      <c r="T33" s="6">
-        <v>0</v>
-      </c>
-      <c r="U33" s="6">
-        <v>1</v>
-      </c>
-      <c r="V33" s="6">
-        <v>1</v>
-      </c>
-      <c r="W33" s="6">
-        <v>0</v>
-      </c>
-      <c r="X33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="6">
+      <c r="C33" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0</v>
+      </c>
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="5">
+        <v>1</v>
+      </c>
+      <c r="V33" s="5">
+        <v>1</v>
+      </c>
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" s="6" customFormat="1" spans="1:34">
       <c r="A34" s="6" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P34" s="6">
         <v>0</v>
@@ -3860,21 +4425,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" s="6" customFormat="1" spans="1:34">
       <c r="A35" s="6" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>5</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P35" s="6">
         <v>0</v>
@@ -3931,13 +4496,86 @@
         <v>0</v>
       </c>
       <c r="AH35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="6" customFormat="1" spans="1:34">
+      <c r="A36" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>1</v>
+      </c>
+      <c r="R36" s="6">
+        <v>0</v>
+      </c>
+      <c r="S36" s="6">
+        <v>0</v>
+      </c>
+      <c r="T36" s="6">
+        <v>0</v>
+      </c>
+      <c r="U36" s="6">
+        <v>1</v>
+      </c>
+      <c r="V36" s="6">
+        <v>1</v>
+      </c>
+      <c r="W36" s="6">
+        <v>0</v>
+      </c>
+      <c r="X36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Resource/excel/table/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="24260" tabRatio="506"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="24255" tabRatio="506"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="1">
+    <comment ref="N6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="2">
+    <comment ref="T7" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W7" authorId="0">
+    <comment ref="W7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="2">
+    <comment ref="M16" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O16" authorId="2">
+    <comment ref="O16" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="150">
   <si>
     <t>xml=class</t>
   </si>
@@ -606,53 +611,49 @@
     <t>无伤完成某关卡次数</t>
   </si>
   <si>
-    <t>finishlevelnodmglist</t>
-  </si>
-  <si>
     <t>每天在线的时间（条件计数使用）</t>
   </si>
   <si>
+    <t>今日最好战绩</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>昨日最好战绩</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>历史最好战绩</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>英雄id</t>
+  </si>
+  <si>
+    <t>特效id</t>
+  </si>
+  <si>
+    <t>脚印id</t>
+  </si>
+  <si>
     <t>onlinetime</t>
-  </si>
-  <si>
-    <t>今日最好战绩</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>昨日最好战绩</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>历史最好战绩</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>英雄id</t>
-  </si>
-  <si>
-    <t>特效id</t>
-  </si>
-  <si>
-    <t>脚印id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishnodmglist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -686,126 +687,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -813,37 +694,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -858,13 +719,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,13 +737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,192 +761,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1121,251 +802,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,7 +824,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1410,61 +852,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="着色 6" xfId="1" builtinId="49"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1486,12 +881,15 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1820,23 +1218,22 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="$A29:$XFD29"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="48.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="36.25" style="7" customWidth="1"/>
@@ -1869,7 +1266,7 @@
     <col min="39" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +1277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:38">
+    <row r="2" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -1996,7 +1393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:38">
+    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2112,17 +1509,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:1">
+    <row r="4" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:1">
+    <row r="5" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:38">
+    <row r="6" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +1635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:38">
+    <row r="7" spans="1:38" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>44</v>
       </c>
@@ -2354,7 +1751,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="16.5" customHeight="1" spans="1:38">
+    <row r="8" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
@@ -2440,7 +1837,7 @@
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
     </row>
-    <row r="9" s="4" customFormat="1" ht="16.5" customHeight="1" spans="1:34">
+    <row r="9" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>85</v>
       </c>
@@ -2514,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="10" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -2585,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="11" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
@@ -2656,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="12" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>93</v>
       </c>
@@ -2727,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="13" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>95</v>
       </c>
@@ -2798,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="14" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>97</v>
       </c>
@@ -2869,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="15" spans="1:38" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>99</v>
       </c>
@@ -2940,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="16.5" customHeight="1" spans="1:34">
+    <row r="16" spans="1:38" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>101</v>
       </c>
@@ -2968,7 +2365,6 @@
       <c r="M16" s="4">
         <v>100</v>
       </c>
-      <c r="O16" s="4"/>
       <c r="P16" s="4">
         <v>0</v>
       </c>
@@ -3027,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:34">
+    <row r="17" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>107</v>
       </c>
@@ -3110,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:34">
+    <row r="18" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>111</v>
       </c>
@@ -3181,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:34">
+    <row r="19" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>113</v>
       </c>
@@ -3264,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:34">
+    <row r="20" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>117</v>
       </c>
@@ -3335,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:34">
+    <row r="21" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>119</v>
       </c>
@@ -3418,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" spans="1:34">
+    <row r="22" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>123</v>
       </c>
@@ -3489,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:34">
+    <row r="23" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>125</v>
       </c>
@@ -3572,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:34">
+    <row r="24" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>129</v>
       </c>
@@ -3655,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" spans="1:34">
+    <row r="25" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>131</v>
       </c>
@@ -3738,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" spans="1:34">
+    <row r="26" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>133</v>
       </c>
@@ -3821,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" spans="1:34">
+    <row r="27" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>135</v>
       </c>
@@ -3904,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" spans="1:34">
+    <row r="28" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>137</v>
       </c>
@@ -3912,7 +3308,7 @@
         <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>103</v>
@@ -3987,15 +3383,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="4" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="29" spans="1:34" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>92</v>
@@ -4058,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="30" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>105</v>
       </c>
@@ -4129,231 +3525,231 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
+    <row r="31" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>92</v>
       </c>
       <c r="J31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>1</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0</v>
+      </c>
+      <c r="S31" s="5">
+        <v>0</v>
+      </c>
+      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="5">
+        <v>1</v>
+      </c>
+      <c r="V31" s="5">
+        <v>1</v>
+      </c>
+      <c r="W31" s="5">
+        <v>0</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="P31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>1</v>
-      </c>
-      <c r="R31" s="5">
-        <v>0</v>
-      </c>
-      <c r="S31" s="5">
-        <v>0</v>
-      </c>
-      <c r="T31" s="5">
-        <v>0</v>
-      </c>
-      <c r="U31" s="5">
-        <v>1</v>
-      </c>
-      <c r="V31" s="5">
-        <v>1</v>
-      </c>
-      <c r="W31" s="5">
-        <v>0</v>
-      </c>
-      <c r="X31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
-      <c r="A32" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>92</v>
       </c>
       <c r="J32" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1</v>
+      </c>
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+      <c r="S32" s="5">
+        <v>0</v>
+      </c>
+      <c r="T32" s="5">
+        <v>0</v>
+      </c>
+      <c r="U32" s="5">
+        <v>1</v>
+      </c>
+      <c r="V32" s="5">
+        <v>1</v>
+      </c>
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="P32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="5">
-        <v>1</v>
-      </c>
-      <c r="R32" s="5">
-        <v>0</v>
-      </c>
-      <c r="S32" s="5">
-        <v>0</v>
-      </c>
-      <c r="T32" s="5">
-        <v>0</v>
-      </c>
-      <c r="U32" s="5">
-        <v>1</v>
-      </c>
-      <c r="V32" s="5">
-        <v>1</v>
-      </c>
-      <c r="W32" s="5">
-        <v>0</v>
-      </c>
-      <c r="X32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" s="5" customFormat="1" ht="15" customHeight="1" spans="1:34">
-      <c r="A33" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>92</v>
       </c>
       <c r="J33" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
+        <v>0</v>
+      </c>
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="5">
+        <v>1</v>
+      </c>
+      <c r="V33" s="5">
+        <v>1</v>
+      </c>
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="P33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>0</v>
-      </c>
-      <c r="R33" s="5">
-        <v>0</v>
-      </c>
-      <c r="S33" s="5">
-        <v>0</v>
-      </c>
-      <c r="T33" s="5">
-        <v>0</v>
-      </c>
-      <c r="U33" s="5">
-        <v>1</v>
-      </c>
-      <c r="V33" s="5">
-        <v>1</v>
-      </c>
-      <c r="W33" s="5">
-        <v>0</v>
-      </c>
-      <c r="X33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" s="6" customFormat="1" spans="1:34">
-      <c r="A34" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>109</v>
@@ -4425,9 +3821,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="6" customFormat="1" spans="1:34">
+    <row r="35" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>115</v>
@@ -4499,9 +3895,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" spans="1:34">
+    <row r="36" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>121</v>
@@ -4574,8 +3970,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Resource/excel/table/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="153">
   <si>
     <t>xml=class</t>
   </si>
@@ -584,31 +584,16 @@
     <t>value</t>
   </si>
   <si>
-    <t>完成某关卡次数</t>
-  </si>
-  <si>
     <t>finishlevellist</t>
   </si>
   <si>
-    <t>某关卡进入密道次数</t>
-  </si>
-  <si>
     <t>extrapathlist</t>
   </si>
   <si>
-    <t>获得某道具N次</t>
-  </si>
-  <si>
     <t>getitemlist</t>
   </si>
   <si>
-    <t>跳过障碍次数</t>
-  </si>
-  <si>
     <t>jumppasslist</t>
-  </si>
-  <si>
-    <t>无伤完成某关卡次数</t>
   </si>
   <si>
     <t>每天在线的时间（条件计数使用）</t>
@@ -646,6 +631,51 @@
   </si>
   <si>
     <t>finishnodmglist</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式里程数（条件计数使用）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无伤完成某关卡次数（条件计数使用）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过障碍次数（条件计数使用）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得某道具N次（条件计数使用）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>某关卡进入密道次数（条件计数使用）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成某关卡次数（条件计数使用）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ndlessscore</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +683,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -702,6 +732,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -811,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +887,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1224,13 +1265,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AL37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2969,14 +3010,14 @@
       </c>
     </row>
     <row r="24" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>129</v>
+      <c r="A24" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>103</v>
@@ -3052,14 +3093,14 @@
       </c>
     </row>
     <row r="25" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
-        <v>131</v>
+      <c r="A25" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>103</v>
@@ -3135,14 +3176,14 @@
       </c>
     </row>
     <row r="26" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
-        <v>133</v>
+      <c r="A26" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>103</v>
@@ -3218,14 +3259,14 @@
       </c>
     </row>
     <row r="27" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>135</v>
+      <c r="A27" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>103</v>
@@ -3301,14 +3342,14 @@
       </c>
     </row>
     <row r="28" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>137</v>
+      <c r="A28" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>103</v>
@@ -3385,13 +3426,13 @@
     </row>
     <row r="29" spans="1:34" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>92</v>
@@ -3454,98 +3495,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="5">
-        <v>0</v>
-      </c>
-      <c r="R30" s="5">
-        <v>0</v>
-      </c>
-      <c r="S30" s="5">
-        <v>0</v>
-      </c>
-      <c r="T30" s="5">
-        <v>0</v>
-      </c>
-      <c r="U30" s="5">
-        <v>0</v>
-      </c>
-      <c r="V30" s="5">
-        <v>1</v>
-      </c>
-      <c r="W30" s="5">
-        <v>0</v>
-      </c>
-      <c r="X30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="5">
-        <v>0</v>
+    <row r="30" spans="1:34" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>1</v>
+      </c>
+      <c r="V30" s="4">
+        <v>1</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="P31" s="5">
         <v>0</v>
       </c>
       <c r="Q31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="5">
         <v>0</v>
@@ -3557,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="U31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="5">
         <v>1</v>
@@ -3572,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="5">
         <v>1</v>
@@ -3593,27 +3631,27 @@
         <v>0</v>
       </c>
       <c r="AG31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>92</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P32" s="5">
         <v>0</v>
@@ -3670,30 +3708,30 @@
         <v>1</v>
       </c>
       <c r="AH32" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>92</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="P33" s="5">
         <v>0</v>
       </c>
       <c r="Q33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="5">
         <v>0</v>
@@ -3747,86 +3785,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>1</v>
-      </c>
-      <c r="R34" s="6">
-        <v>0</v>
-      </c>
-      <c r="S34" s="6">
-        <v>0</v>
-      </c>
-      <c r="T34" s="6">
-        <v>0</v>
-      </c>
-      <c r="U34" s="6">
-        <v>1</v>
-      </c>
-      <c r="V34" s="6">
-        <v>1</v>
-      </c>
-      <c r="W34" s="6">
-        <v>0</v>
-      </c>
-      <c r="X34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="6">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="6">
+    <row r="34" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0</v>
+      </c>
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+      <c r="S34" s="5">
+        <v>0</v>
+      </c>
+      <c r="T34" s="5">
+        <v>0</v>
+      </c>
+      <c r="U34" s="5">
+        <v>1</v>
+      </c>
+      <c r="V34" s="5">
+        <v>1</v>
+      </c>
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>105</v>
@@ -3897,10 +3935,10 @@
     </row>
     <row r="36" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>105</v>
@@ -3966,6 +4004,80 @@
         <v>0</v>
       </c>
       <c r="AH36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>1</v>
+      </c>
+      <c r="R37" s="6">
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
+        <v>0</v>
+      </c>
+      <c r="T37" s="6">
+        <v>0</v>
+      </c>
+      <c r="U37" s="6">
+        <v>1</v>
+      </c>
+      <c r="V37" s="6">
+        <v>1</v>
+      </c>
+      <c r="W37" s="6">
+        <v>0</v>
+      </c>
+      <c r="X37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/table/W-玩家-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/table/W-玩家-玩家属性-(框架定义,后端维护).xlsx
@@ -1268,10 +1268,10 @@
   <dimension ref="A1:AL37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="V10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="Z30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="4">
         <v>1</v>
